--- a/templates/templateTeacher.xlsx
+++ b/templates/templateTeacher.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\golang\src\github.com\paulantezana\review\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E0C7F-4277-4B0C-A6B0-C3EC46878EF7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446A1F8-F7CB-49B3-A392-4B7D939BB169}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
   <sheets>
     <sheet name="profesor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DNI</t>
   </si>
@@ -33,34 +33,10 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t>Apellidos</t>
+    <t>Apellidos y Nombres</t>
   </si>
   <si>
-    <t>Nombres</t>
-  </si>
-  <si>
-    <t>Fecha Nacimeinto</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Condicion laboral</t>
-  </si>
-  <si>
-    <t>Nivel de educacion</t>
-  </si>
-  <si>
-    <t>Fecha de admicion</t>
-  </si>
-  <si>
-    <t>Fecha de retiro</t>
-  </si>
-  <si>
-    <t>Especialidad</t>
+    <t>ID Programa</t>
   </si>
 </sst>
 </file>
@@ -421,29 +397,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,37 +419,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
     </row>
   </sheetData>

--- a/templates/templateTeacher.xlsx
+++ b/templates/templateTeacher.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2446A1F8-F7CB-49B3-A392-4B7D939BB169}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6273BABB-1CA3-44DA-A251-E30FF195C878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
   <sheets>
-    <sheet name="profesor" sheetId="1" r:id="rId1"/>
+    <sheet name="teacher" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DNI</t>
   </si>
@@ -33,10 +33,34 @@
     <t>Telefono</t>
   </si>
   <si>
-    <t>Apellidos y Nombres</t>
-  </si>
-  <si>
-    <t>ID Programa</t>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Nombres</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Condicion Laboral</t>
+  </si>
+  <si>
+    <t>Nivel de educacion</t>
+  </si>
+  <si>
+    <t>Fecha ingreso</t>
+  </si>
+  <si>
+    <t>Fecha retiro</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
   </si>
 </sst>
 </file>
@@ -52,7 +76,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -397,36 +421,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/templates/templateTeacher.xlsx
+++ b/templates/templateTeacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6273BABB-1CA3-44DA-A251-E30FF195C878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67D50B-5563-4BAF-A04C-82F97BBE5CAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DNI</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Especialidad</t>
+  </si>
+  <si>
+    <t>ProgramID</t>
   </si>
 </sst>
 </file>
@@ -421,29 +424,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,6 +483,9 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
